--- a/Test/Lawnmower/T2/Sensors_data_1000041.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000041.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9916375967110469</v>
+        <v>0.9888977793376154</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0005239167520443381</v>
+        <v>0.0006155814470126935</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08008501926266526</v>
+        <v>0.07352874843922441</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8659713226700119</v>
+        <v>0.8971959846994194</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003532715729148456</v>
+        <v>0.006195197483961284</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0568372070706073</v>
+        <v>0.184048482639681</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2163530763929638</v>
+        <v>0.9841066752857099</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03390339318699764</v>
+        <v>0.0009957399536681889</v>
       </c>
       <c r="E4" t="n">
-        <v>0.587067181988683</v>
+        <v>0.08677616756606743</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -550,18 +550,68 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9163028415813105</v>
+        <v>0.9038773342625525</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004585114898578502</v>
+        <v>0.002533592511267606</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05875055788290928</v>
+        <v>0.060544560931653</v>
       </c>
       <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>s5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8796378380154377</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.005207301374727268</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2119184357166688</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G5" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>s6</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.535728851456984</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02543379728037924</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.06094287656541403</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
